--- a/TCC/PTCC/Rascunho_proj/Cronograma.xlsx
+++ b/TCC/PTCC/Rascunho_proj/Cronograma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Etec\TCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\userlocal\Desktop\Etec\TCC\PTCC\Rascunho_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Inicio</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Banco de Dados</t>
+  </si>
+  <si>
+    <t>Desenvolvimento do Descritivo de Caso de Uso</t>
   </si>
 </sst>
 </file>
@@ -254,8 +257,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -274,24 +285,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -623,256 +633,286 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="12">
         <v>44775</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="14">
         <v>1</v>
       </c>
-      <c r="F5" s="7" t="str">
+      <c r="F5" s="13" t="str">
         <f>IF(E5&lt;=30%,"Primicias",IF(E5&lt;5=50%,"Em Desenvolvimento",IF(E5&lt;=99%,"No finalmente","Concluido")))</f>
         <v>Concluido</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="12">
         <v>44775</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="14">
         <v>1</v>
       </c>
-      <c r="F6" s="7" t="str">
-        <f t="shared" ref="F6:F13" si="0">IF(E6&lt;=30%,"Primicias",IF(E6&lt;5=50%,"Em Desenvolvimento",IF(E6&lt;=99%,"No finalmente","Concluido")))</f>
+      <c r="F6" s="13" t="str">
+        <f t="shared" ref="F6:F14" si="0">IF(E6&lt;=30%,"Primicias",IF(E6&lt;5=50%,"Em Desenvolvimento",IF(E6&lt;=99%,"No finalmente","Concluido")))</f>
         <v>Concluido</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="12">
         <v>44775</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="14">
         <v>1</v>
       </c>
-      <c r="F7" s="7" t="str">
+      <c r="F7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Concluido</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="15">
         <v>44786</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="15">
         <v>44789</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="14">
         <v>1</v>
       </c>
-      <c r="F8" s="7" t="str">
+      <c r="F8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Concluido</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="12">
         <v>44796</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="14">
         <v>1</v>
       </c>
-      <c r="F9" s="14" t="str">
+      <c r="F9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Concluido</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="12">
         <v>44817</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="14">
         <v>1</v>
       </c>
-      <c r="F10" s="14" t="str">
+      <c r="F10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Concluido</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+    <row r="11" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>44820</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="18">
         <v>1</v>
       </c>
-      <c r="F11" s="14" t="str">
+      <c r="F11" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Concluido</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="12">
         <v>44820</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="14">
         <v>1</v>
       </c>
-      <c r="F12" s="14" t="str">
+      <c r="F12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Concluido</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="15">
         <v>44822</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="14">
         <v>0.5</v>
       </c>
-      <c r="F13" s="14" t="str">
+      <c r="F13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>No finalmente</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>44830</v>
+      </c>
+      <c r="B14" s="15">
+        <v>44838</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Concluido</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TCC/PTCC/Rascunho_proj/Cronograma.xlsx
+++ b/TCC/PTCC/Rascunho_proj/Cronograma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\userlocal\Desktop\Etec\TCC\PTCC\Rascunho_proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Etec\TCC\PTCC\Rascunho_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Inicio</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Desenvolvimento do Descritivo de Caso de Uso</t>
+  </si>
+  <si>
+    <t>Desenvolvimento Diagrama de Classe</t>
   </si>
 </sst>
 </file>
@@ -264,33 +267,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -302,6 +278,33 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -325,15 +328,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>1295400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -633,286 +636,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="B1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
         <v>44775</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="14">
-        <v>1</v>
-      </c>
-      <c r="F5" s="13" t="str">
-        <f>IF(E5&lt;=30%,"Primicias",IF(E5&lt;5=50%,"Em Desenvolvimento",IF(E5&lt;=99%,"No finalmente","Concluido")))</f>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f>IF(F6&lt;=30%,"Primicias",IF(F6&lt;5=50%,"Em Desenvolvimento",IF(F6&lt;=99%,"No finalmente","Concluido")))</f>
         <v>Concluido</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
         <v>44775</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="14">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13" t="str">
-        <f t="shared" ref="F6:F14" si="0">IF(E6&lt;=30%,"Primicias",IF(E6&lt;5=50%,"Em Desenvolvimento",IF(E6&lt;=99%,"No finalmente","Concluido")))</f>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f t="shared" ref="G7:G16" si="0">IF(F7&lt;=30%,"Primicias",IF(F7&lt;5=50%,"Em Desenvolvimento",IF(F7&lt;=99%,"No finalmente","Concluido")))</f>
         <v>Concluido</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
         <v>44775</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="14">
-        <v>1</v>
-      </c>
-      <c r="F7" s="13" t="str">
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Concluido</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
         <v>44786</v>
       </c>
-      <c r="B8" s="15">
+      <c r="C9" s="6">
         <v>44789</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="14">
-        <v>1</v>
-      </c>
-      <c r="F8" s="13" t="str">
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Concluido</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
         <v>44796</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="14">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13" t="str">
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Concluido</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
         <v>44817</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="E11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="14">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13" t="str">
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Concluido</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+    <row r="12" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
         <v>44820</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="E12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="18">
-        <v>1</v>
-      </c>
-      <c r="F11" s="17" t="str">
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Concluido</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+    <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
         <v>44820</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="16" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="14">
-        <v>1</v>
-      </c>
-      <c r="F12" s="13" t="str">
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Concluido</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
         <v>44822</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="14">
+      <c r="F14" s="5">
         <v>0.5</v>
       </c>
-      <c r="F13" s="13" t="str">
+      <c r="G14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>No finalmente</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
         <v>44830</v>
       </c>
-      <c r="B14" s="15">
+      <c r="C15" s="6">
         <v>44838</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="E15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13" t="str">
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Concluido</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13"/>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>44887</v>
+      </c>
+      <c r="C16" s="6">
+        <v>44887</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Concluido</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TCC/PTCC/Rascunho_proj/Cronograma.xlsx
+++ b/TCC/PTCC/Rascunho_proj/Cronograma.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Etec\TCC\PTCC\Rascunho_proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\userlocal\Desktop\Etec\TCC\PTCC\Rascunho_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Inicio</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>Desenvolvimento Diagrama de Classe</t>
+  </si>
+  <si>
+    <t>Criação do mapa mental</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Criação do logo Shannon e CondMind</t>
+  </si>
+  <si>
+    <t>Criação do MER</t>
   </si>
 </sst>
 </file>
@@ -329,15 +341,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:colOff>812800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>22223</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>158750</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1295400</xdr:rowOff>
+      <xdr:rowOff>1072732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -360,8 +372,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5391150" y="0"/>
-          <a:ext cx="1295400" cy="1295400"/>
+          <a:off x="6750050" y="360890"/>
+          <a:ext cx="1039283" cy="1050509"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -636,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G16"/>
+  <dimension ref="B1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,8 +666,8 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
@@ -737,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="str">
-        <f t="shared" ref="G7:G16" si="0">IF(F7&lt;=30%,"Primicias",IF(F7&lt;5=50%,"Em Desenvolvimento",IF(F7&lt;=99%,"No finalmente","Concluido")))</f>
+        <f t="shared" ref="G7:G18" si="0">IF(F7&lt;=30%,"Primicias",IF(F7&lt;5=50%,"Em Desenvolvimento",IF(F7&lt;=99%,"No finalmente","Concluido")))</f>
         <v>Concluido</v>
       </c>
     </row>
@@ -869,7 +881,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="5">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="G14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -899,16 +911,16 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
-        <v>44887</v>
+        <v>44850</v>
       </c>
       <c r="C16" s="6">
-        <v>44887</v>
+        <v>44850</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
@@ -918,19 +930,82 @@
         <v>Concluido</v>
       </c>
     </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>44887</v>
+      </c>
+      <c r="C17" s="6">
+        <v>44887</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Concluido</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>44894</v>
+      </c>
+      <c r="C18" s="6">
+        <v>44894</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Concluido</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>44894</v>
+      </c>
+      <c r="C19" s="6">
+        <v>44894</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f t="shared" ref="G19" si="1">IF(F19&lt;=30%,"Primicias",IF(F19&lt;5=50%,"Em Desenvolvimento",IF(F19&lt;=99%,"No finalmente","Concluido")))</f>
+        <v>Concluido</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
